--- a/Prepared_Links/Aptitude_Links.xlsx
+++ b/Prepared_Links/Aptitude_Links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Links\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE81DDC4-DB21-48E2-8BDE-C47A56914307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A6A0C-1EBB-4C25-877A-FFF67D9A64C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3252" yWindow="684" windowWidth="18060" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>https://www.indiabix.com/aptitude/profit-and-loss/formulas</t>
   </si>
@@ -40,13 +40,19 @@
   </si>
   <si>
     <t>Profit or Loss</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PL9PUK1zcTDBiTzmte-W4E3f91s68H3BAv</t>
+  </si>
+  <si>
+    <t>Youtube Playlist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +64,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,19 +94,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,28 +388,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -400,16 +417,27 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{7C217324-C2EC-4836-9FC3-FB437A567666}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>